--- a/DateBase/orders/Dang Nguyen_2025-4-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-16.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>084104914530</v>
+        <v>084104914534</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,146 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>731_芍药冰点_undefined_undefined_10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>659_大丽花 黄蓬蓬_undefined_undefined_5stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +724,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>084104914534</v>
+        <v>08410491453448106477492641221034</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-16.xlsx
@@ -726,6 +726,9 @@
       <c r="G2" t="str">
         <v>08410491453448106477492641221034</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
